--- a/16th July Batch/Class 04.02.2023 - ML Day1.xlsx
+++ b/16th July Batch/Class 04.02.2023 - ML Day1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\16th July Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9561F2C4-654C-4EA2-8F6B-CC3DE2CFC820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B75CAC5-0A72-4215-865E-5F866738E52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>shape</t>
   </si>
@@ -67,16 +67,228 @@
   </si>
   <si>
     <t>cricket</t>
+  </si>
+  <si>
+    <t>movies eatched previously</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>user 1</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>2.35 hours</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>tom hanks</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cast away</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>2.00 hours</t>
+  </si>
+  <si>
+    <t>da vinci code</t>
+  </si>
+  <si>
+    <t>catch me if you can</t>
+  </si>
+  <si>
+    <t>drama comedy</t>
+  </si>
+  <si>
+    <t>2.15 hours</t>
+  </si>
+  <si>
+    <t>Forest Gump</t>
+  </si>
+  <si>
+    <t>content based filtering</t>
+  </si>
+  <si>
+    <t>Popularity based recommendation</t>
+  </si>
+  <si>
+    <t>user 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user 3 </t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Uk</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>netflix India</t>
+  </si>
+  <si>
+    <t>netflix UK</t>
+  </si>
+  <si>
+    <t>netflix USA</t>
+  </si>
+  <si>
+    <t>show name</t>
+  </si>
+  <si>
+    <t>viewership</t>
+  </si>
+  <si>
+    <t>last action hero</t>
+  </si>
+  <si>
+    <t>vadh</t>
+  </si>
+  <si>
+    <t>downtown abby</t>
+  </si>
+  <si>
+    <t>peaky blinders</t>
+  </si>
+  <si>
+    <t>breaking bad</t>
+  </si>
+  <si>
+    <t>seinfield</t>
+  </si>
+  <si>
+    <t>collaborative filtering</t>
+  </si>
+  <si>
+    <t>user 3</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>user 4</t>
+  </si>
+  <si>
+    <t>control page</t>
+  </si>
+  <si>
+    <t>test page</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>south india</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>7 day</t>
+  </si>
+  <si>
+    <t>web traffic</t>
+  </si>
+  <si>
+    <t>rooms booked</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>8 district</t>
+  </si>
+  <si>
+    <t>affluent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle class </t>
+  </si>
+  <si>
+    <t>Knet</t>
+  </si>
+  <si>
+    <t>aws lambda</t>
+  </si>
+  <si>
+    <t>aws glue</t>
+  </si>
+  <si>
+    <t>aws sagemaker</t>
+  </si>
+  <si>
+    <t>us based employee</t>
+  </si>
+  <si>
+    <t>aws lamda</t>
+  </si>
+  <si>
+    <t>indian employee</t>
+  </si>
+  <si>
+    <t>glue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,11 +314,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,77 +604,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>44959</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>150000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>140000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>5000000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>44961</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44962</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>65000</v>
+      </c>
+      <c r="E41">
+        <v>125</v>
+      </c>
+      <c r="F41">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>75000</v>
+      </c>
+      <c r="E42">
+        <v>85</v>
+      </c>
+      <c r="F42">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>